--- a/Tut 5.xlsx
+++ b/Tut 5.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alex Barrios\Documents\Varsity Google\2018\Semester 1\CBI 310\Tutorials\Tutorial 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baral\Google Drive\2018\Semester 1\CBI 310\Tutorials\Tutorial 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82982EF-2313-4B43-BDBF-066947CECAAF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EF8140-6DE2-4132-A737-08DD5C9B0AA3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="8385" tabRatio="599" xr2:uid="{B2997CC9-C77E-4D62-9ACB-94CC7D82A48E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16356" windowHeight="8388" tabRatio="599" xr2:uid="{B2997CC9-C77E-4D62-9ACB-94CC7D82A48E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="55">
   <si>
     <t>Anabolic Reaction</t>
   </si>
@@ -188,6 +189,9 @@
   <si>
     <t>Question h</t>
   </si>
+  <si>
+    <t>This is the test</t>
+  </si>
 </sst>
 </file>
 
@@ -206,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -240,6 +250,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,22 +572,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475A810E-8D47-446C-9F35-A4519581D8C2}">
   <dimension ref="A1:U136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="S131" sqref="S131"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="T120" sqref="T120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -595,7 +611,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -625,7 +641,7 @@
         <v>-1.1200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -654,7 +670,7 @@
         <v>-0.23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -683,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -712,7 +728,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -741,7 +757,7 @@
         <v>8.5000000000000187E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9">
         <f t="array" ref="B9:F13">MINVERSE(B3:F7)</f>
         <v>1</v>
@@ -759,7 +775,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>0</v>
       </c>
@@ -776,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0</v>
       </c>
@@ -793,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>0</v>
       </c>
@@ -814,7 +830,7 @@
         <v>1.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>-2</v>
       </c>
@@ -835,23 +851,1593 @@
         <v>0.12478124999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S14">
         <f>+S12-S13</f>
         <v>-0.10678124999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="array" ref="S17:S30">MMULT(B33:O46,Q17:Q30)</f>
+        <v>0.69511363636363632</v>
+      </c>
+      <c r="T17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" s="3">
+        <f>+S17/$S$17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U18" s="6">
+        <f t="shared" ref="U18:U30" si="0">+S18/$S$17</f>
+        <v>0.2157920549288867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19">
+        <v>-1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0.5271136363636364</v>
+      </c>
+      <c r="U19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.758312898479647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0.28268181818181815</v>
+      </c>
+      <c r="U20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.40666993624325648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>-1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" s="3">
+        <v>9.4227272727272729E-2</v>
+      </c>
+      <c r="U21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13555664541441884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>-1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" s="6">
+        <v>0.37690909090909092</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.54222658165767534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>-1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>-1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.24443181818181819</v>
+      </c>
+      <c r="U23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35164296223639041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>3/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>-1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M26">
+        <v>-1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D27">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>-1/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0.5</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0.24443181818181819</v>
+      </c>
+      <c r="U27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35164296223639041</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>-1.8</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H28">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0.5</v>
+      </c>
+      <c r="Q28">
+        <v>0.05</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S28" s="6">
+        <v>8.1477272727272718E-2</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11721432074546345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0.15</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0.16295454545454546</v>
+      </c>
+      <c r="U29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23442864149092696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" s="6">
+        <v>0.16295454545454546</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U30" s="6">
+        <f t="shared" si="0"/>
+        <v>0.23442864149092696</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <f t="array" ref="B33:O46">MINVERSE(B17:O30)</f>
+        <v>-1</v>
+      </c>
+      <c r="C33">
+        <v>-1.0909090909090908</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>-0.54545454545454541</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>-0.81818181818181834</v>
+      </c>
+      <c r="H33">
+        <v>-0.81818181818181823</v>
+      </c>
+      <c r="I33">
+        <v>-0.54545454545454553</v>
+      </c>
+      <c r="J33">
+        <v>0.68181818181818188</v>
+      </c>
+      <c r="K33">
+        <v>-0.81818181818181823</v>
+      </c>
+      <c r="L33">
+        <v>-0.27272727272727265</v>
+      </c>
+      <c r="M33">
+        <v>1.6363636363636367</v>
+      </c>
+      <c r="N33">
+        <v>4.0886363636363638</v>
+      </c>
+      <c r="O33">
+        <v>9.0909090909090939E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>3.0839528461809905E-17</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>-3.0839528461809905E-17</v>
+      </c>
+      <c r="H34">
+        <v>-3.0839528461809905E-17</v>
+      </c>
+      <c r="I34">
+        <v>-1.5419764230904953E-17</v>
+      </c>
+      <c r="J34">
+        <v>3.0839528461809905E-17</v>
+      </c>
+      <c r="K34">
+        <v>-3.0839528461809905E-17</v>
+      </c>
+      <c r="L34">
+        <v>3.0839528461809905E-17</v>
+      </c>
+      <c r="M34">
+        <v>3.0839528461809905E-17</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>-1.0909090909090908</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>-0.54545454545454541</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>-0.81818181818181834</v>
+      </c>
+      <c r="H35">
+        <v>-0.81818181818181823</v>
+      </c>
+      <c r="I35">
+        <v>-0.54545454545454553</v>
+      </c>
+      <c r="J35">
+        <v>0.68181818181818188</v>
+      </c>
+      <c r="K35">
+        <v>-0.81818181818181823</v>
+      </c>
+      <c r="L35">
+        <v>-0.27272727272727271</v>
+      </c>
+      <c r="M35">
+        <v>1.6363636363636367</v>
+      </c>
+      <c r="N35">
+        <v>2.9686363636363637</v>
+      </c>
+      <c r="O35">
+        <v>9.0909090909090939E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>-0.5454545454545453</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>-0.27272727272727265</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>-0.40909090909090906</v>
+      </c>
+      <c r="H36">
+        <v>-0.40909090909090906</v>
+      </c>
+      <c r="I36">
+        <v>-1.2727272727272727</v>
+      </c>
+      <c r="J36">
+        <v>-0.40909090909090889</v>
+      </c>
+      <c r="K36">
+        <v>-0.40909090909090917</v>
+      </c>
+      <c r="L36">
+        <v>-1.6363636363636362</v>
+      </c>
+      <c r="M36">
+        <v>0.81818181818181834</v>
+      </c>
+      <c r="N36">
+        <v>1.6118181818181818</v>
+      </c>
+      <c r="O36">
+        <v>0.5454545454545453</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>-0.18181818181818177</v>
+      </c>
+      <c r="D37">
+        <v>-1</v>
+      </c>
+      <c r="E37">
+        <v>-9.0909090909090884E-2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>-0.13636363636363635</v>
+      </c>
+      <c r="H37">
+        <v>-0.13636363636363635</v>
+      </c>
+      <c r="I37">
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="J37">
+        <v>-0.1363636363636363</v>
+      </c>
+      <c r="K37">
+        <v>-0.13636363636363638</v>
+      </c>
+      <c r="L37">
+        <v>-0.54545454545454541</v>
+      </c>
+      <c r="M37">
+        <v>0.27272727272727276</v>
+      </c>
+      <c r="N37">
+        <v>0.53727272727272724</v>
+      </c>
+      <c r="O37">
+        <v>0.18181818181818177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>-0.72727272727272707</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>-0.36363636363636354</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>-0.54545454545454541</v>
+      </c>
+      <c r="H38">
+        <v>-0.54545454545454541</v>
+      </c>
+      <c r="I38">
+        <v>-0.36363636363636354</v>
+      </c>
+      <c r="J38">
+        <v>-0.54545454545454519</v>
+      </c>
+      <c r="K38">
+        <v>-0.54545454545454553</v>
+      </c>
+      <c r="L38">
+        <v>-2.1818181818181817</v>
+      </c>
+      <c r="M38">
+        <v>1.0909090909090911</v>
+      </c>
+      <c r="N38">
+        <v>2.1490909090909089</v>
+      </c>
+      <c r="O38">
+        <v>0.72727272727272707</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>-0.27272727272727282</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>-0.40909090909090928</v>
+      </c>
+      <c r="H39">
+        <v>-0.40909090909090917</v>
+      </c>
+      <c r="I39">
+        <v>0.72727272727272718</v>
+      </c>
+      <c r="J39">
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="K39">
+        <v>-0.40909090909090906</v>
+      </c>
+      <c r="L39">
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="M39">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="N39">
+        <v>1.3568181818181819</v>
+      </c>
+      <c r="O39">
+        <v>-0.45454545454545436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>-1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0.72727272727272718</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>-0.40909090909090928</v>
+      </c>
+      <c r="H43">
+        <v>-0.40909090909090917</v>
+      </c>
+      <c r="I43">
+        <v>0.72727272727272718</v>
+      </c>
+      <c r="J43">
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="K43">
+        <v>-0.40909090909090906</v>
+      </c>
+      <c r="L43">
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="M43">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="N43">
+        <v>1.3568181818181819</v>
+      </c>
+      <c r="O43">
+        <v>-1.4545454545454544</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0.15151515151515146</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0.24242424242424238</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>-0.13636363636363638</v>
+      </c>
+      <c r="H44">
+        <v>-0.13636363636363638</v>
+      </c>
+      <c r="I44">
+        <v>0.24242424242424238</v>
+      </c>
+      <c r="J44">
+        <v>0.36363636363636359</v>
+      </c>
+      <c r="K44">
+        <v>-1.1363636363636362</v>
+      </c>
+      <c r="L44">
+        <v>0.45454545454545442</v>
+      </c>
+      <c r="M44">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N44">
+        <v>0.45227272727272722</v>
+      </c>
+      <c r="O44">
+        <v>-0.48484848484848475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0.30303030303030298</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.48484848484848481</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0.72727272727272718</v>
+      </c>
+      <c r="H45">
+        <v>-0.27272727272727282</v>
+      </c>
+      <c r="I45">
+        <v>0.48484848484848481</v>
+      </c>
+      <c r="J45">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="K45">
+        <v>0.72727272727272718</v>
+      </c>
+      <c r="L45">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="M45">
+        <v>0.54545454545454553</v>
+      </c>
+      <c r="N45">
+        <v>0.90454545454545465</v>
+      </c>
+      <c r="O45">
+        <v>-0.96969696969696961</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0.30303030303030298</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.48484848484848481</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0.72727272727272718</v>
+      </c>
+      <c r="H46">
+        <v>0.72727272727272718</v>
+      </c>
+      <c r="I46">
+        <v>0.48484848484848481</v>
+      </c>
+      <c r="J46">
+        <v>-0.27272727272727276</v>
+      </c>
+      <c r="K46">
+        <v>0.72727272727272718</v>
+      </c>
+      <c r="L46">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="M46">
+        <v>0.54545454545454553</v>
+      </c>
+      <c r="N46">
+        <v>0.90454545454545465</v>
+      </c>
+      <c r="O46">
+        <v>-0.30303030303030298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <f>4+1.9-2*0.45-3*0.23</f>
         <v>4.3099999999999996</v>
@@ -881,7 +2467,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -920,7 +2506,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -946,7 +2532,7 @@
         <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -955,10 +2541,10 @@
         <v>38</v>
       </c>
       <c r="M52" s="2">
-        <v>-4.9680000000000002E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-4.9788863109048773E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -984,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -993,14 +2579,14 @@
         <v>39</v>
       </c>
       <c r="M53" s="2">
-        <v>-0.19312000000000001</v>
+        <v>-0.10947331786542933</v>
       </c>
       <c r="O53">
         <f>0.0762/S72</f>
         <v>0.10726492906631478</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1031,14 +2617,17 @@
       <c r="K54">
         <v>0</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M54" s="2">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M54" s="8">
+        <v>0.21647331786542917</v>
+      </c>
+      <c r="N54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -1069,14 +2658,14 @@
       <c r="K55">
         <v>-1</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="L55" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="8">
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -1090,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1105,16 +2694,16 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0.216</v>
-      </c>
-      <c r="L56" s="1" t="s">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="L56" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56" s="8">
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -1131,10 +2720,10 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1143,16 +2732,16 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="L57" s="1" t="s">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="L57" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M57">
-        <v>0.20111999999999991</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M57" s="7">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -1172,130 +2761,130 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0.23400000000000001</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="M58">
-        <v>5.5400000000000019E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.11153364269141532</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B60">
         <f t="array" ref="B60:I67">MINVERSE(B51:I58)</f>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>-5.5511151231257827E-17</v>
+      </c>
+      <c r="D60">
+        <v>5.5511151231257827E-17</v>
+      </c>
+      <c r="E60">
+        <v>-2.2204460492503131E-16</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>5.5511151231257827E-17</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
         <v>1.1102230246251565E-16</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>-5.5511151231257827E-17</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>-1.6653345369377348E-16</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B61">
-        <v>0</v>
+        <v>-0.21345707656612536</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>-5.3364269141531362E-2</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>0.10672853828306265</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>1.1600928074245942</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.21345707656612536</v>
       </c>
       <c r="G61">
-        <v>-0.23</v>
+        <v>0.18677494199535963</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>0.21345707656612536</v>
       </c>
       <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.10672853828306265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B62">
-        <v>0.5</v>
+        <v>7.1925754060324754E-2</v>
       </c>
       <c r="C62">
-        <v>-0.5</v>
+        <v>-0.23201856148491881</v>
       </c>
       <c r="D62">
-        <v>0.25</v>
+        <v>0.46403712296983757</v>
       </c>
       <c r="E62">
-        <v>1.5</v>
+        <v>0.69605568445475652</v>
       </c>
       <c r="F62">
-        <v>0.25</v>
+        <v>-7.1925754060324754E-2</v>
       </c>
       <c r="G62">
-        <v>-7.5000000000000622E-3</v>
+        <v>-0.18793503480278423</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>-7.1925754060324754E-2</v>
       </c>
       <c r="I62">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-0.53596287703016243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B63">
-        <v>0</v>
+        <v>0.92807424593967525</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>0.23201856148491881</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>-0.46403712296983762</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>-0.69605568445475641</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>-0.92807424593967525</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>-0.81206496519721583</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>-0.92807424593967525</v>
       </c>
       <c r="I63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-0.46403712296983762</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>0</v>
       </c>
@@ -1312,16 +2901,16 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>0</v>
       </c>
@@ -1341,70 +2930,70 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B66">
-        <v>0.49999999999999989</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>-0.24999999999999994</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>-0.99249999999999983</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>-1.25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B67">
-        <v>-1</v>
+        <v>-0.56148491879350337</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.35962877030162416</v>
       </c>
       <c r="D67">
-        <v>0.5</v>
+        <v>0.28074245939675169</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>-1.0788863109048725</v>
       </c>
       <c r="F67">
-        <v>0.5</v>
+        <v>-0.43851508120649663</v>
       </c>
       <c r="G67">
-        <v>0.77500000000000002</v>
+        <v>-0.25870069605568452</v>
       </c>
       <c r="H67">
-        <v>0.5</v>
+        <v>-0.43851508120649663</v>
       </c>
       <c r="I67">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-0.71925754060324831</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>17</v>
       </c>
@@ -1451,7 +3040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -1511,11 +3100,11 @@
         <v>35</v>
       </c>
       <c r="U72" s="3">
-        <f>+S72/$S$72</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U72:U85" si="1">+S72/$S$72</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2</v>
       </c>
@@ -1564,21 +3153,21 @@
       <c r="Q73">
         <v>0</v>
       </c>
-      <c r="R73" s="1" t="s">
+      <c r="R73" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S73" s="3">
+      <c r="S73" s="6">
         <v>0.14999999999999997</v>
       </c>
-      <c r="T73" t="s">
+      <c r="T73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="U73" s="3">
-        <f>+S73/$S$72</f>
+      <c r="U73" s="6">
+        <f t="shared" si="1"/>
         <v>0.21115143516991092</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
@@ -1634,11 +3223,11 @@
         <v>0.5423906249999999</v>
       </c>
       <c r="U74" s="3">
-        <f>+S74/$S$72</f>
+        <f t="shared" si="1"/>
         <v>0.76351039260969977</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>4</v>
       </c>
@@ -1694,11 +3283,11 @@
         <v>0.37434374999999992</v>
       </c>
       <c r="U75" s="3">
-        <f>+S75/$S$72</f>
+        <f t="shared" si="1"/>
         <v>0.52695480039590892</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5</v>
       </c>
@@ -1754,11 +3343,11 @@
         <v>0.12478124999999998</v>
       </c>
       <c r="U76" s="3">
-        <f>+S76/$S$72</f>
+        <f t="shared" si="1"/>
         <v>0.17565160013196968</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>6</v>
       </c>
@@ -1807,21 +3396,21 @@
       <c r="Q77">
         <v>0</v>
       </c>
-      <c r="R77" s="1" t="s">
+      <c r="R77" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S77" s="3">
+      <c r="S77" s="6">
         <v>0.49912499999999993</v>
       </c>
-      <c r="T77" t="s">
+      <c r="T77" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U77" s="3">
-        <f>+S77/$S$72</f>
+      <c r="U77" s="6">
+        <f t="shared" si="1"/>
         <v>0.70260640052787871</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7</v>
       </c>
@@ -1877,11 +3466,11 @@
         <v>0.16804687500000004</v>
       </c>
       <c r="U78" s="3">
-        <f>+S78/$S$72</f>
+        <f t="shared" si="1"/>
         <v>0.23655559221379094</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>8</v>
       </c>
@@ -1938,11 +3527,11 @@
         <v>0.16804687500000004</v>
       </c>
       <c r="U79" s="3">
-        <f>+S79/$S$72</f>
+        <f t="shared" si="1"/>
         <v>0.23655559221379094</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>9</v>
       </c>
@@ -1999,11 +3588,11 @@
         <v>5.6015625000000027E-2</v>
       </c>
       <c r="U80" s="3">
-        <f>+S80/$S$72</f>
+        <f t="shared" si="1"/>
         <v>7.8851864071263669E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>10</v>
       </c>
@@ -2060,11 +3649,11 @@
         <v>0.11203125000000003</v>
       </c>
       <c r="U81" s="3">
-        <f>+S81/$S$72</f>
+        <f t="shared" si="1"/>
         <v>0.15770372814252728</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>11</v>
       </c>
@@ -2122,11 +3711,11 @@
         <v>0</v>
       </c>
       <c r="U82" s="3">
-        <f>+S82/$S$72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>12</v>
       </c>
@@ -2178,21 +3767,21 @@
       <c r="Q83">
         <v>0.05</v>
       </c>
-      <c r="R83" s="1" t="s">
+      <c r="R83" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" t="s">
+      <c r="S83" s="6">
+        <v>0</v>
+      </c>
+      <c r="T83" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="U83" s="3">
-        <f>+S83/$S$72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U83" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>13</v>
       </c>
@@ -2248,11 +3837,11 @@
         <v>0</v>
       </c>
       <c r="U84" s="3">
-        <f>+S84/$S$72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>14</v>
       </c>
@@ -2301,21 +3890,21 @@
       <c r="Q85">
         <v>0</v>
       </c>
-      <c r="R85" s="1" t="s">
+      <c r="R85" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S85" s="3">
+      <c r="S85" s="6">
         <v>0.11203125000000003</v>
       </c>
-      <c r="T85" t="s">
+      <c r="T85" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U85" s="3">
-        <f>+S85/$S$72</f>
+      <c r="U85" s="6">
+        <f t="shared" si="1"/>
         <v>0.15770372814252728</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2363,7 +3952,7 @@
         <v>-6.2500000000000056E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -2410,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>3</v>
       </c>
@@ -2457,7 +4046,7 @@
         <v>-6.2500000000000056E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2504,7 +4093,7 @@
         <v>-0.37499999999999994</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>5</v>
       </c>
@@ -2551,7 +4140,7 @@
         <v>-0.12499999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>6</v>
       </c>
@@ -2598,7 +4187,7 @@
         <v>-0.49999999999999994</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>7</v>
       </c>
@@ -2645,7 +4234,7 @@
         <v>0.31249999999999989</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>8</v>
       </c>
@@ -2692,7 +4281,7 @@
         <v>-0.68750000000000011</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>9</v>
       </c>
@@ -2739,7 +4328,7 @@
         <v>-0.22916666666666674</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>10</v>
       </c>
@@ -2786,7 +4375,7 @@
         <v>-0.45833333333333337</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>11</v>
       </c>
@@ -2833,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>12</v>
       </c>
@@ -2880,7 +4469,7 @@
         <v>0.33333333333333326</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>13</v>
       </c>
@@ -2927,7 +4516,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>14</v>
       </c>
@@ -2974,12 +4563,12 @@
         <v>0.20833333333333331</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>17</v>
       </c>
@@ -3026,7 +4615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3075,22 +4664,22 @@
       <c r="Q107">
         <v>0</v>
       </c>
-      <c r="R107" s="1" t="s">
+      <c r="R107" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S107" s="3">
+      <c r="S107" s="6">
         <f t="array" ref="S107:S120">MMULT(B123:O136,Q107:Q120)</f>
-        <v>0.71039062499999983</v>
-      </c>
-      <c r="T107" t="s">
+        <v>8.4375000000000019E-2</v>
+      </c>
+      <c r="T107" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U107" s="3">
-        <f>+S107/$S$72</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U107" s="6">
+        <f t="shared" ref="U107:U120" si="2">+S107/$S$72</f>
+        <v>0.11877268228307494</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2</v>
       </c>
@@ -3139,21 +4728,21 @@
       <c r="Q108">
         <v>0</v>
       </c>
-      <c r="R108" s="1" t="s">
+      <c r="R108" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S108" s="3">
-        <v>0.14999999999999997</v>
-      </c>
-      <c r="T108" t="s">
+      <c r="S108" s="6">
+        <v>3.0839528461809906E-18</v>
+      </c>
+      <c r="T108" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="U108" s="3">
-        <f>+S108/$S$72</f>
-        <v>0.21115143516991092</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U108" s="6">
+        <f t="shared" si="2"/>
+        <v>4.3412071297829856E-18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>3</v>
       </c>
@@ -3206,14 +4795,14 @@
         <v>19</v>
       </c>
       <c r="S109" s="3">
-        <v>0.5423906249999999</v>
+        <v>8.4375000000000019E-2</v>
       </c>
       <c r="U109" s="3">
-        <f>+S109/$S$72</f>
-        <v>0.76351039260969977</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.11877268228307494</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>4</v>
       </c>
@@ -3266,14 +4855,14 @@
         <v>20</v>
       </c>
       <c r="S110" s="3">
-        <v>0.37434374999999992</v>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="U110" s="3">
-        <f>+S110/$S$72</f>
-        <v>0.52695480039590892</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>7.9181788188716615E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5</v>
       </c>
@@ -3326,14 +4915,14 @@
         <v>21</v>
       </c>
       <c r="S111" s="3">
-        <v>0.12478124999999998</v>
+        <v>1.8750000000000003E-2</v>
       </c>
       <c r="U111" s="3">
-        <f>+S111/$S$72</f>
-        <v>0.17565160013196968</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2.6393929396238875E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>6</v>
       </c>
@@ -3382,21 +4971,21 @@
       <c r="Q112">
         <v>0</v>
       </c>
-      <c r="R112" s="1" t="s">
+      <c r="R112" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S112" s="3">
-        <v>0.49912499999999993</v>
-      </c>
-      <c r="T112" t="s">
+      <c r="S112" s="6">
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="T112" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U112" s="3">
-        <f>+S112/$S$72</f>
-        <v>0.70260640052787871</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U112" s="6">
+        <f t="shared" si="2"/>
+        <v>0.1055757175849555</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>7</v>
       </c>
@@ -3449,14 +5038,14 @@
         <v>23</v>
       </c>
       <c r="S113" s="3">
-        <v>0.16804687500000007</v>
+        <v>2.8125000000000011E-2</v>
       </c>
       <c r="U113" s="3">
-        <f>+S113/$S$72</f>
-        <v>0.23655559221379097</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>3.9590894094358321E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>8</v>
       </c>
@@ -3510,14 +5099,14 @@
         <v>24</v>
       </c>
       <c r="S114" s="3">
-        <v>0.16804687500000004</v>
+        <v>2.8125000000000011E-2</v>
       </c>
       <c r="U114" s="3">
-        <f>+S114/$S$72</f>
-        <v>0.23655559221379094</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>3.9590894094358321E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>9</v>
       </c>
@@ -3571,14 +5160,14 @@
         <v>25</v>
       </c>
       <c r="S115" s="3">
-        <v>5.6015625000000013E-2</v>
+        <v>9.3750000000000049E-3</v>
       </c>
       <c r="U115" s="3">
-        <f>+S115/$S$72</f>
-        <v>7.8851864071263641E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1.3196964698119443E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>10</v>
       </c>
@@ -3632,14 +5221,14 @@
         <v>26</v>
       </c>
       <c r="S116" s="3">
-        <v>0.11203125000000001</v>
+        <v>1.8750000000000006E-2</v>
       </c>
       <c r="U116" s="3">
-        <f>+S116/$S$72</f>
-        <v>0.15770372814252728</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2.6393929396238879E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>11</v>
       </c>
@@ -3694,14 +5283,14 @@
         <v>27</v>
       </c>
       <c r="S117" s="3">
-        <v>2.823828127850942E-17</v>
+        <v>0</v>
       </c>
       <c r="U117" s="3">
-        <f>+S117/$S$72</f>
-        <v>3.9750357457925952E-17</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>12</v>
       </c>
@@ -3753,21 +5342,21 @@
       <c r="Q118">
         <v>0.05</v>
       </c>
-      <c r="R118" s="1" t="s">
+      <c r="R118" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S118" s="3">
-        <v>0</v>
-      </c>
-      <c r="T118" t="s">
+      <c r="S118" s="6">
+        <v>0</v>
+      </c>
+      <c r="T118" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="U118" s="3">
-        <f>+S118/$S$72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U118" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>13</v>
       </c>
@@ -3814,20 +5403,20 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="R119" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S119" s="3">
-        <v>2.823828127850942E-17</v>
+        <v>0</v>
       </c>
       <c r="U119" s="3">
-        <f>+S119/$S$72</f>
-        <v>3.9750357457925952E-17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>14</v>
       </c>
@@ -3862,10 +5451,10 @@
         <v>0</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -3876,21 +5465,21 @@
       <c r="Q120">
         <v>0</v>
       </c>
-      <c r="R120" s="1" t="s">
+      <c r="R120" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S120" s="3">
-        <v>0.11203125000000004</v>
-      </c>
-      <c r="T120" t="s">
+      <c r="S120" s="6">
+        <v>1.8750000000000006E-2</v>
+      </c>
+      <c r="T120" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U120" s="3">
-        <f>+S120/$S$72</f>
-        <v>0.15770372814252731</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U120" s="6">
+        <f t="shared" si="2"/>
+        <v>2.6393929396238879E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3917,13 +5506,13 @@
         <v>-0.84375000000000011</v>
       </c>
       <c r="I123">
-        <v>-0.5</v>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="J123">
         <v>0.75000000000000011</v>
       </c>
       <c r="K123">
-        <v>-1.03125</v>
+        <v>-0.84375000000000011</v>
       </c>
       <c r="L123">
         <v>-0.18750000000000028</v>
@@ -3935,10 +5524,10 @@
         <v>4.1734374999999995</v>
       </c>
       <c r="O123">
-        <v>-0.1875</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-6.2500000000000056E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2</v>
       </c>
@@ -3964,13 +5553,13 @@
         <v>0</v>
       </c>
       <c r="I124">
-        <v>1.5419764230904953E-17</v>
+        <v>3.0839528461809905E-17</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>6.1679056923619811E-17</v>
+        <v>0</v>
       </c>
       <c r="L124">
         <v>-6.1679056923619811E-17</v>
@@ -3985,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>3</v>
       </c>
@@ -4011,13 +5600,13 @@
         <v>-0.84375000000000011</v>
       </c>
       <c r="I125">
-        <v>-0.5</v>
+        <v>-0.49999999999999989</v>
       </c>
       <c r="J125">
         <v>0.75000000000000011</v>
       </c>
       <c r="K125">
-        <v>-1.03125</v>
+        <v>-0.84375000000000011</v>
       </c>
       <c r="L125">
         <v>-0.18750000000000022</v>
@@ -4029,10 +5618,10 @@
         <v>3.0534374999999998</v>
       </c>
       <c r="O125">
-        <v>-0.1875</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-6.2500000000000056E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>4</v>
       </c>
@@ -4046,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>-2.6978419498391301E-16</v>
+        <v>-8.9928064994637686E-17</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -4058,13 +5647,13 @@
         <v>-0.5625</v>
       </c>
       <c r="I126">
-        <v>-1.0000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="J126">
         <v>1.7985612998927537E-16</v>
       </c>
       <c r="K126">
-        <v>-1.6874999999999996</v>
+        <v>-0.5625</v>
       </c>
       <c r="L126">
         <v>-1.1250000000000004</v>
@@ -4076,10 +5665,10 @@
         <v>2.1206249999999995</v>
       </c>
       <c r="O126">
-        <v>-1.1249999999999996</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>5</v>
       </c>
@@ -4093,7 +5682,7 @@
         <v>-1</v>
       </c>
       <c r="E127">
-        <v>-8.9928064994637673E-17</v>
+        <v>-2.9976021664879229E-17</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -4105,13 +5694,13 @@
         <v>-0.1875</v>
       </c>
       <c r="I127">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="J127">
         <v>5.9952043329758457E-17</v>
       </c>
       <c r="K127">
-        <v>-0.56249999999999989</v>
+        <v>-0.1875</v>
       </c>
       <c r="L127">
         <v>-0.37500000000000011</v>
@@ -4123,10 +5712,10 @@
         <v>0.70687499999999992</v>
       </c>
       <c r="O127">
-        <v>-0.37499999999999989</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-0.12499999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>6</v>
       </c>
@@ -4140,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>-3.5971225997855069E-16</v>
+        <v>-1.1990408665951691E-16</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -4152,13 +5741,13 @@
         <v>-0.75</v>
       </c>
       <c r="I128">
-        <v>-3.5971225997855069E-16</v>
+        <v>-1.1990408665951691E-16</v>
       </c>
       <c r="J128">
         <v>2.3980817331903383E-16</v>
       </c>
       <c r="K128">
-        <v>-2.2499999999999996</v>
+        <v>-0.75</v>
       </c>
       <c r="L128">
         <v>-1.5000000000000004</v>
@@ -4170,10 +5759,10 @@
         <v>2.8274999999999997</v>
       </c>
       <c r="O128">
-        <v>-1.4999999999999996</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>7</v>
       </c>
@@ -4187,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>-0.49999999999999978</v>
+        <v>-0.49999999999999989</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -4199,13 +5788,13 @@
         <v>-0.28125000000000011</v>
       </c>
       <c r="I129">
-        <v>0.50000000000000022</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="J129">
         <v>0.74999999999999989</v>
       </c>
       <c r="K129">
-        <v>0.65624999999999956</v>
+        <v>-0.28125000000000011</v>
       </c>
       <c r="L129">
         <v>0.93750000000000022</v>
@@ -4214,13 +5803,13 @@
         <v>0.56250000000000022</v>
       </c>
       <c r="N129">
-        <v>0.93281250000000038</v>
+        <v>0.93281250000000027</v>
       </c>
       <c r="O129">
-        <v>0.93749999999999956</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.31249999999999989</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>8</v>
       </c>
@@ -4252,7 +5841,7 @@
         <v>0.74999999999999989</v>
       </c>
       <c r="K130">
-        <v>-2.3437500000000009</v>
+        <v>-0.28125000000000011</v>
       </c>
       <c r="L130">
         <v>0.93750000000000022</v>
@@ -4261,13 +5850,13 @@
         <v>0.56250000000000022</v>
       </c>
       <c r="N130">
-        <v>0.93281250000000016</v>
+        <v>0.93281250000000027</v>
       </c>
       <c r="O130">
-        <v>-2.0625000000000009</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-0.68750000000000011</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>9</v>
       </c>
@@ -4299,7 +5888,7 @@
         <v>1.25</v>
       </c>
       <c r="K131">
-        <v>-0.78125000000000044</v>
+        <v>-9.3750000000000042E-2</v>
       </c>
       <c r="L131">
         <v>0.31250000000000011</v>
@@ -4308,13 +5897,13 @@
         <v>0.18750000000000008</v>
       </c>
       <c r="N131">
-        <v>0.31093750000000009</v>
+        <v>0.31093750000000014</v>
       </c>
       <c r="O131">
-        <v>-0.68750000000000033</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>10</v>
       </c>
@@ -4346,7 +5935,7 @@
         <v>-0.50000000000000011</v>
       </c>
       <c r="K132">
-        <v>-1.5625000000000004</v>
+        <v>-0.18750000000000006</v>
       </c>
       <c r="L132">
         <v>0.62500000000000011</v>
@@ -4355,13 +5944,13 @@
         <v>0.37500000000000011</v>
       </c>
       <c r="N132">
-        <v>0.62187500000000007</v>
+        <v>0.62187500000000018</v>
       </c>
       <c r="O132">
-        <v>-1.3750000000000004</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-0.45833333333333337</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>11</v>
       </c>
@@ -4375,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>9.4127604261698066E-17</v>
+        <v>0</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -4387,13 +5976,13 @@
         <v>0</v>
       </c>
       <c r="I133">
-        <v>9.4127604261698066E-17</v>
+        <v>0</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>3.0000000000000004</v>
+        <v>0</v>
       </c>
       <c r="L133">
         <v>0</v>
@@ -4402,13 +5991,13 @@
         <v>0</v>
       </c>
       <c r="N133">
-        <v>1.8825520852339613E-16</v>
+        <v>0</v>
       </c>
       <c r="O133">
-        <v>3.0000000000000004</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>12</v>
       </c>
@@ -4440,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L134">
         <v>0</v>
@@ -4452,10 +6041,10 @@
         <v>0</v>
       </c>
       <c r="O134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.33333333333333326</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>13</v>
       </c>
@@ -4469,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>9.4127604261698066E-17</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -4481,13 +6070,13 @@
         <v>0</v>
       </c>
       <c r="I135">
-        <v>9.4127604261698066E-17</v>
+        <v>0</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135">
-        <v>3.0000000000000004</v>
+        <v>1</v>
       </c>
       <c r="L135">
         <v>0</v>
@@ -4496,13 +6085,13 @@
         <v>0</v>
       </c>
       <c r="N135">
-        <v>1.8825520852339613E-16</v>
+        <v>0</v>
       </c>
       <c r="O135">
-        <v>2.0000000000000004</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>14</v>
       </c>
@@ -4516,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0.33333333333333343</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -4528,13 +6117,13 @@
         <v>0.8125</v>
       </c>
       <c r="I136">
-        <v>0.33333333333333343</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="J136">
         <v>-0.50000000000000011</v>
       </c>
       <c r="K136">
-        <v>1.4374999999999998</v>
+        <v>0.8125</v>
       </c>
       <c r="L136">
         <v>0.62500000000000011</v>
@@ -4543,10 +6132,287 @@
         <v>0.37500000000000011</v>
       </c>
       <c r="N136">
-        <v>0.62187500000000029</v>
+        <v>0.62187500000000018</v>
       </c>
       <c r="O136">
-        <v>0.62499999999999989</v>
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A3B0D7-2895-46ED-84F8-E07CCE7864EE}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>4+1.9-2*0.45-3*0.23</f>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F4">
+        <f>4+1.5-2</f>
+        <v>3.5</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.23</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.216</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
